--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9660" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3107" uniqueCount="1359">
   <si>
     <t>date</t>
   </si>
@@ -4123,6 +4123,9 @@
   </si>
   <si>
     <t>44,2,21,29,12,35</t>
+  </si>
+  <si>
+    <t>5,43,28,7,31,1</t>
   </si>
 </sst>
 </file>
@@ -5103,8 +5106,8 @@
   <sheetPr/>
   <dimension ref="A1:M3104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A1374" workbookViewId="0">
+      <selection activeCell="M1389" sqref="M1389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -16515,7 +16518,7 @@
         <v>70126</v>
       </c>
       <c r="B1385" t="s">
-        <v>14</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="1386" spans="1:2">

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10668" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14105,13 +14105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -14584,14 +14584,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -14915,10 +14915,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M3175"/>
+  <dimension ref="A1:P3175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -14926,10 +14926,14 @@
     <col min="1" max="1" width="12.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="12.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="7.55555555555556" customWidth="1"/>
     <col min="5" max="5" width="4.33333333333333" customWidth="1"/>
     <col min="6" max="6" width="2.66666666666667" customWidth="1"/>
     <col min="7" max="13" width="3.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="17" customWidth="1"/>
+    <col min="14" max="14" width="3.33333333333333" customWidth="1"/>
+    <col min="15" max="15" width="2.88888888888889" customWidth="1"/>
+    <col min="16" max="16" width="3" customWidth="1"/>
+    <col min="17" max="17" width="2.77777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -14962,7 +14966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -14972,18 +14976,18 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>16</v>
       </c>
-      <c r="H4" s="3">
+      <c r="K4" s="6">
         <v>24</v>
       </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -14993,26 +14997,26 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>15</v>
       </c>
-      <c r="H5" s="3">
+      <c r="K5" s="6">
         <v>23</v>
       </c>
-      <c r="I5" s="9">
+      <c r="L5" s="7">
         <v>31</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>38</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -15022,26 +15026,26 @@
       <c r="C6" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>14</v>
       </c>
-      <c r="H6" s="3">
+      <c r="K6" s="6">
         <v>22</v>
       </c>
-      <c r="I6" s="9">
+      <c r="L6" s="7">
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>37</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -15051,26 +15055,26 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>5</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>13</v>
       </c>
-      <c r="H7" s="3">
+      <c r="K7" s="6">
         <v>21</v>
       </c>
-      <c r="I7" s="9">
+      <c r="L7" s="7">
         <v>29</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>36</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -15080,26 +15084,26 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>12</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="6">
         <v>20</v>
       </c>
-      <c r="I8" s="9">
+      <c r="L8" s="7">
         <v>28</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>35</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -15109,26 +15113,26 @@
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>3</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>11</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="6">
         <v>19</v>
       </c>
-      <c r="I9" s="9">
+      <c r="L9" s="7">
         <v>27</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>34</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -15138,26 +15142,26 @@
       <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>2</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="6">
         <v>18</v>
       </c>
-      <c r="I10" s="9">
+      <c r="L10" s="7">
         <v>26</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>33</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -15167,26 +15171,26 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>9</v>
       </c>
-      <c r="H11" s="3">
+      <c r="K11" s="6">
         <v>17</v>
       </c>
-      <c r="I11" s="9">
+      <c r="L11" s="7">
         <v>25</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>32</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -15196,25 +15200,25 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="4">
+      <c r="I12" s="8">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="J12" s="8">
         <v>2</v>
       </c>
-      <c r="H12" s="4">
+      <c r="K12" s="8">
         <v>3</v>
       </c>
-      <c r="I12" s="10">
+      <c r="L12" s="9">
         <v>4</v>
       </c>
-      <c r="J12" s="4">
+      <c r="M12" s="8">
         <v>5</v>
       </c>
-      <c r="K12" s="4">
+      <c r="N12" s="8">
         <v>6</v>
       </c>
     </row>
@@ -15240,7 +15244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -15250,36 +15254,36 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" cm="1">
-        <f t="array" ref="E15:M20">TRANSPOSE(_xlfn.SORTBY(F4:K12,ROW(F4:K12),-1))</f>
+      <c r="H15" s="3" cm="1">
+        <f t="array" ref="H15:P20">TRANSPOSE(_xlfn.SORTBY(I4:N12,ROW(I4:N12),-1))</f>
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>2</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>4</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>5</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>6</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>7</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -15289,35 +15293,35 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6">
+      <c r="H16" s="4">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>9</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>10</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>11</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>12</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>13</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>14</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>15</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" ht="15.15" spans="1:13">
+    <row r="17" ht="15.15" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -15327,35 +15331,35 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="7">
+      <c r="H17" s="5">
         <v>3</v>
       </c>
-      <c r="F17" s="8">
+      <c r="I17" s="10">
         <v>17</v>
       </c>
-      <c r="G17" s="8">
+      <c r="J17" s="10">
         <v>18</v>
       </c>
-      <c r="H17" s="8">
+      <c r="K17" s="10">
         <v>19</v>
       </c>
-      <c r="I17" s="8">
+      <c r="L17" s="10">
         <v>20</v>
       </c>
-      <c r="J17" s="8">
+      <c r="M17" s="10">
         <v>21</v>
       </c>
-      <c r="K17" s="8">
+      <c r="N17" s="10">
         <v>22</v>
       </c>
-      <c r="L17" s="8">
+      <c r="O17" s="10">
         <v>23</v>
       </c>
-      <c r="M17" s="8">
+      <c r="P17" s="10">
         <v>24</v>
       </c>
     </row>
-    <row r="18" ht="15.15" spans="1:13">
+    <row r="18" ht="15.15" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -15365,35 +15369,35 @@
       <c r="C18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="6">
+      <c r="H18" s="4">
         <v>4</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>25</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>26</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>27</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>28</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>29</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>30</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>31</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -15403,35 +15407,35 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="6">
+      <c r="H19" s="4">
         <v>5</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>32</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>33</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>34</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>35</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>36</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>37</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>38</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -15441,31 +15445,31 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="6">
+      <c r="H20" s="4">
         <v>6</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>39</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>40</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>41</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>42</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>43</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>44</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>45</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>0</v>
       </c>
     </row>
